--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/10/seed3/result_data_KNN.xlsx
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.612</v>
+        <v>-21.846</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.696</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.374</v>
+        <v>-22.23</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.004</v>
+        <v>-20.217</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.178</v>
+        <v>-22.164</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.586</v>
+        <v>-21.696</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.352</v>
+        <v>-20.505</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.62</v>
+        <v>-19.951</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
